--- a/HopeMDM/2015年4月10日HopeMDM 为OTC贸易公司增加到产品大类控制权限.xls/work.xlsx
+++ b/HopeMDM/2015年4月10日HopeMDM 为OTC贸易公司增加到产品大类控制权限.xls/work.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="值集" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="hm_fnd_value_sets" sheetId="2" r:id="rId2"/>
+    <sheet name="hm_fnd_values" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <r>
       <t>M</t>
@@ -44,6 +44,73 @@
         <charset val="134"/>
       </rPr>
       <t>400</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tlPro&amp;Company</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MtlPro&amp;Company</t>
+  </si>
+  <si>
+    <t>MtlPro&amp;Company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要产品大类分片的销售组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人人乐</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>2008/2/28 18:43:00</t>
+  </si>
+  <si>
+    <t>AAANLqAAFAABaUNAAA</t>
+  </si>
+  <si>
+    <t>MtlPro&amp;Company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>015test</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,6 +128,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -92,7 +160,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -100,6 +168,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -405,14 +479,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="59.25" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="23.125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.15">
@@ -425,7 +500,7 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.15">
@@ -448,12 +523,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.25" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -463,12 +566,56 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
